--- a/ocms/src/test/resources/DownloadedFiles/Fax Line Config (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Fax Line Config (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t xml:space="preserve">Fax Line</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">All type of Loans</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
     <t xml:space="preserve">56782</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">qbsjs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
     <t xml:space="preserve">6785</t>
@@ -257,19 +254,19 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -280,19 +277,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -303,42 +300,42 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -349,19 +346,19 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -372,7 +369,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
